--- a/public/data/soil/soil_table_gambia.xlsx
+++ b/public/data/soil/soil_table_gambia.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -775,16 +775,16 @@
         <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>443.1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>73.4</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>268.3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5606.2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.148</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7.448</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="5">
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>88.9</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8315.4</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -863,10 +863,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>14.859</v>
+        <v>18.238</v>
       </c>
     </row>
     <row r="6">
@@ -880,28 +880,28 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>47.2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>212.4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>126.9</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7435.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.284</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.647</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.266</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>13.758</v>
+        <v>26.805</v>
       </c>
     </row>
     <row r="7">
@@ -918,25 +918,25 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>137.8</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5030.3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.197</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.16</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="8">
@@ -953,25 +953,25 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>50.2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3744.2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>4.289</v>
+        <v>6.629</v>
       </c>
     </row>
     <row r="9">
@@ -985,28 +985,28 @@
         <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>728.2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2773.3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>237.3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>14876.4</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.435</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>10.366</v>
+        <v>21.957</v>
       </c>
     </row>
     <row r="10">
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>35577.8</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>59.477</v>
+        <v>62.067</v>
       </c>
     </row>
     <row r="11">
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>957.1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.974</v>
+        <v>12.119</v>
       </c>
     </row>
     <row r="12">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>7784.4</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>11.483</v>
+        <v>7.406</v>
       </c>
     </row>
     <row r="13">
@@ -1131,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>19.4</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>5130</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>4.944</v>
+        <v>7.064</v>
       </c>
     </row>
     <row r="14">
@@ -1163,25 +1163,25 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>390.6</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>14333.4</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.527</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>22.003</v>
+        <v>35.502</v>
       </c>
     </row>
     <row r="15">
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>6261.4</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>5.503</v>
+        <v>3.246</v>
       </c>
     </row>
     <row r="16">
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>18949.9</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.562</v>
+        <v>23.868</v>
       </c>
     </row>
     <row r="17">
@@ -1268,25 +1268,25 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7189.3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>10.125</v>
+        <v>5.466</v>
       </c>
     </row>
     <row r="18">
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>20008.8</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>23.459</v>
+        <v>25.635</v>
       </c>
     </row>
     <row r="19">
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>14450</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>21.417</v>
+        <v>13.447</v>
       </c>
     </row>
     <row r="20">
@@ -1373,25 +1373,25 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2053.7</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>55.6</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7927.7</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5.072</v>
+        <v>20.249</v>
       </c>
       <c r="J20" t="n">
-        <v>0.201</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>15.692</v>
+        <v>9.883</v>
       </c>
     </row>
     <row r="21">
@@ -1405,28 +1405,28 @@
         <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>128.8</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>283.2</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>353.1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>12077.2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.166</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.327</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.387</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>20.082</v>
+        <v>30.573</v>
       </c>
     </row>
     <row r="22">
@@ -1443,25 +1443,25 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>493.6</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>32.2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7414.3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.909</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>15.365</v>
+        <v>15.637</v>
       </c>
     </row>
     <row r="23">
@@ -1478,25 +1478,25 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>18043.9</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.412</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>36.908</v>
+        <v>54.013</v>
       </c>
     </row>
     <row r="24">
@@ -1513,25 +1513,25 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>993.2</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>865.5</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>24704.1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.438</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.174</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>53.449</v>
+        <v>34.81</v>
       </c>
     </row>
     <row r="25">
@@ -1545,28 +1545,28 @@
         <v>56</v>
       </c>
       <c r="D25" t="n">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>686.4</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>13974.6</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>16.944</v>
+        <v>33.675</v>
       </c>
     </row>
     <row r="26">
@@ -1583,25 +1583,25 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>477.7</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>38665.9</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>92.548</v>
+        <v>105.738</v>
       </c>
     </row>
     <row r="27">
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>14478.5</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>35.268</v>
+        <v>29.277</v>
       </c>
     </row>
     <row r="28">
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>15160.1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>23.519</v>
+        <v>21.537</v>
       </c>
     </row>
     <row r="29">
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>27105.9</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>44.694</v>
+        <v>57.693</v>
       </c>
     </row>
     <row r="30">
@@ -1720,28 +1720,28 @@
         <v>63</v>
       </c>
       <c r="D30" t="n">
-        <v>895.2</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>4256.6</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>173.1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>5080.8</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.928</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>4.905</v>
+        <v>11.68</v>
       </c>
       <c r="J30" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>6.733</v>
+        <v>4.032</v>
       </c>
     </row>
     <row r="31">
@@ -1758,25 +1758,25 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2790.8</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3962.1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.653</v>
+        <v>7.875</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>4.412</v>
+        <v>4.864</v>
       </c>
     </row>
     <row r="32">
@@ -1790,28 +1790,28 @@
         <v>65</v>
       </c>
       <c r="D32" t="n">
-        <v>367.1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2283.8</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2926.5</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.682</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.761</v>
+        <v>19.213</v>
       </c>
       <c r="J32" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>7.318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1828,25 +1828,25 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>752.4</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3378.5</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.197</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>5.082</v>
+        <v>6.938</v>
       </c>
     </row>
     <row r="34">
@@ -1860,28 +1860,28 @@
         <v>67</v>
       </c>
       <c r="D34" t="n">
-        <v>202.7</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3406.7</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>47.7</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3245</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>4.282</v>
+        <v>5.371</v>
       </c>
       <c r="J34" t="n">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>5.15</v>
+        <v>3.486</v>
       </c>
     </row>
     <row r="35">
@@ -1895,28 +1895,28 @@
         <v>68</v>
       </c>
       <c r="D35" t="n">
-        <v>113.9</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1850.9</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>9531.4</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.394</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.385</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>3.269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1930,28 +1930,28 @@
         <v>69</v>
       </c>
       <c r="D36" t="n">
-        <v>616.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>3952.3</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>5250.4</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.709</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.645</v>
+        <v>26.673</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>11.613</v>
+        <v>12.778</v>
       </c>
     </row>
     <row r="37">
@@ -1965,16 +1965,16 @@
         <v>70</v>
       </c>
       <c r="D37" t="n">
-        <v>215.1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>109.3</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>8306.4</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2003,25 +2003,25 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3675.5</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>9878.7</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.508</v>
+        <v>17.728</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>12.052</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_gambia.xlsx
+++ b/public/data/soil/soil_table_gambia.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>637.4</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2179.8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>7141.1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>10065.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>6188.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1037.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3085.2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>23990.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50721</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2425.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>13000.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5388.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>18903.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>8993.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>27385.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>11754.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>23552</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>20060.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>5610.5</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>12185.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>20132.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>8285.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>42063.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>46059.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>33962.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>56427.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>22674.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>18917.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>37352.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1723,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>5451.5</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1112.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1758,13 +1758,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1090.9</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4914.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3289.8</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1922.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2129.7</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3082.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1898,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1516</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3204.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1933,13 +1933,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2926</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1263.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>5638.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2003,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3490.4</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6354.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
